--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/CREDITOS  ABASTOS  HERRADURA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/CREDITOS  ABASTOS  HERRADURA   AGOSTO   2022.xlsx
@@ -19,7 +19,8 @@
     <sheet name="  REMISIONES   MAYO   2022   " sheetId="5" r:id="rId5"/>
     <sheet name="  REMISIONES   JUNIO   2022   " sheetId="6" r:id="rId6"/>
     <sheet name="  REMISIONES   JULIO    2022   " sheetId="7" r:id="rId7"/>
-    <sheet name="Hoja2" sheetId="8" r:id="rId8"/>
+    <sheet name="REMISIONES    AGOSTO    2022" sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="49">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -214,6 +215,18 @@
   </si>
   <si>
     <t>30-Jul-22--31-Jul-22</t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE   AGOSTO     2 0 2 2</t>
+  </si>
+  <si>
+    <t>31-Jul-22--2-Ago-22</t>
+  </si>
+  <si>
+    <t>31-Jul-22--3-Ago-22</t>
+  </si>
+  <si>
+    <t>31-Jul-22--2-Ago-22--3-Ago-22</t>
   </si>
 </sst>
 </file>
@@ -1580,6 +1593,117 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="21064540"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="21112167"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -10122,8 +10246,8 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11798,8 +11922,8 @@
       <c r="E65" s="23">
         <v>214</v>
       </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="25"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="21">
         <f t="shared" si="0"/>
         <v>214</v>
@@ -11979,14 +12103,14 @@
       <c r="E72" s="23">
         <v>160</v>
       </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="67"/>
       <c r="H72" s="21">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="26">
         <v>44772</v>
       </c>
@@ -12001,15 +12125,16 @@
       <c r="E73" s="23">
         <v>16909</v>
       </c>
-      <c r="F73" s="24">
-        <v>44773</v>
+      <c r="F73" s="69" t="s">
+        <v>46</v>
       </c>
       <c r="G73" s="25">
-        <v>11850</v>
+        <f>11850+5059</f>
+        <v>16909</v>
       </c>
       <c r="H73" s="21">
         <f t="shared" si="0"/>
-        <v>5059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12027,11 +12152,15 @@
       <c r="E74" s="23">
         <v>8356</v>
       </c>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
+      <c r="F74" s="66">
+        <v>44776</v>
+      </c>
+      <c r="G74" s="67">
+        <v>8356</v>
+      </c>
       <c r="H74" s="21">
         <f t="shared" si="0"/>
-        <v>8356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12049,10 +12178,10 @@
       <c r="E75" s="23">
         <v>20380</v>
       </c>
-      <c r="F75" s="24">
+      <c r="F75" s="66">
         <v>44773</v>
       </c>
-      <c r="G75" s="25">
+      <c r="G75" s="67">
         <v>2964</v>
       </c>
       <c r="H75" s="21">
@@ -12086,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="26">
         <v>44773</v>
       </c>
@@ -12101,15 +12230,16 @@
       <c r="E77" s="23">
         <v>5326</v>
       </c>
-      <c r="F77" s="24">
-        <v>44773</v>
-      </c>
-      <c r="G77" s="25">
-        <v>3526</v>
+      <c r="F77" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77" s="67">
+        <f>3526+1800</f>
+        <v>5326</v>
       </c>
       <c r="H77" s="21">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12127,14 +12257,18 @@
       <c r="E78" s="23">
         <v>15952</v>
       </c>
-      <c r="F78" s="24"/>
-      <c r="G78" s="25"/>
+      <c r="F78" s="66">
+        <v>44776</v>
+      </c>
+      <c r="G78" s="67">
+        <v>5000</v>
+      </c>
       <c r="H78" s="21">
         <f t="shared" si="0"/>
-        <v>15952</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10952</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>44773</v>
       </c>
@@ -12149,15 +12283,16 @@
       <c r="E79" s="23">
         <v>9219</v>
       </c>
-      <c r="F79" s="24">
-        <v>44773</v>
-      </c>
-      <c r="G79" s="25">
-        <v>2803</v>
+      <c r="F79" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" s="67">
+        <f>2803+4800+1616</f>
+        <v>9219</v>
       </c>
       <c r="H79" s="21">
         <f t="shared" si="0"/>
-        <v>6416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12213,11 +12348,11 @@
       <c r="F83" s="49"/>
       <c r="G83" s="49">
         <f>SUM(G4:G82)</f>
-        <v>536278</v>
+        <v>562909</v>
       </c>
       <c r="H83" s="50">
         <f>SUM(H4:H82)</f>
-        <v>55373</v>
+        <v>28742</v>
       </c>
       <c r="I83" s="2"/>
     </row>
@@ -12261,7 +12396,7 @@
       <c r="D87" s="2"/>
       <c r="E87" s="75">
         <f>E83-G83</f>
-        <v>55373</v>
+        <v>28742</v>
       </c>
       <c r="F87" s="76"/>
       <c r="G87" s="77"/>
@@ -12402,6 +12537,1553 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF66CC"/>
+  </sheetPr>
+  <dimension ref="A1:I100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="18" style="65" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>44775</v>
+      </c>
+      <c r="B4" s="15">
+        <v>397</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="18">
+        <v>14758</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21">
+        <f t="shared" ref="H4:H82" si="0">E4-G4</f>
+        <v>14758</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>44776</v>
+      </c>
+      <c r="B5" s="15">
+        <v>398</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="23">
+        <v>14231</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>14231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>44776</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <v>399</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="23">
+        <v>8429</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>8429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>402</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>403</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>404</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>406</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>407</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>411</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>412</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>415</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>417</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>418</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>419</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>421</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15">
+        <f t="shared" si="1"/>
+        <v>422</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15">
+        <f t="shared" si="1"/>
+        <v>423</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15">
+        <f t="shared" si="1"/>
+        <v>424</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15">
+        <f t="shared" si="1"/>
+        <v>426</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15">
+        <f t="shared" si="1"/>
+        <v>427</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="34">
+        <f t="shared" si="1"/>
+        <v>428</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="34">
+        <f t="shared" si="1"/>
+        <v>429</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="34">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="34">
+        <f t="shared" si="1"/>
+        <v>431</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="34">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="34">
+        <f t="shared" si="1"/>
+        <v>433</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="34">
+        <f t="shared" si="1"/>
+        <v>434</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15">
+        <f t="shared" si="1"/>
+        <v>435</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15">
+        <f t="shared" si="1"/>
+        <v>436</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15">
+        <f t="shared" si="1"/>
+        <v>437</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15">
+        <f t="shared" si="1"/>
+        <v>439</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15">
+        <f t="shared" si="1"/>
+        <v>442</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15">
+        <f t="shared" si="1"/>
+        <v>443</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15">
+        <f t="shared" si="1"/>
+        <v>444</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15">
+        <f t="shared" si="1"/>
+        <v>446</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15">
+        <f t="shared" si="1"/>
+        <v>447</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15">
+        <f t="shared" si="1"/>
+        <v>448</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15">
+        <f t="shared" si="1"/>
+        <v>449</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15">
+        <f t="shared" si="1"/>
+        <v>451</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15">
+        <f t="shared" si="1"/>
+        <v>452</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15">
+        <f t="shared" si="1"/>
+        <v>454</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15">
+        <f t="shared" si="1"/>
+        <v>455</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15">
+        <f t="shared" si="1"/>
+        <v>456</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15">
+        <f t="shared" si="1"/>
+        <v>457</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="15">
+        <f t="shared" si="1"/>
+        <v>458</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="15">
+        <f t="shared" si="1"/>
+        <v>459</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="15">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="15">
+        <f t="shared" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="15">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="15">
+        <f t="shared" ref="B70:B79" si="2">B69+1</f>
+        <v>463</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="15">
+        <f t="shared" si="2"/>
+        <v>464</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="15">
+        <f t="shared" si="2"/>
+        <v>465</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="15">
+        <f t="shared" si="2"/>
+        <v>466</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="15">
+        <f t="shared" si="2"/>
+        <v>467</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="15">
+        <f t="shared" si="2"/>
+        <v>468</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="B76" s="15">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="15">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="15">
+        <f t="shared" si="2"/>
+        <v>471</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="15">
+        <f t="shared" si="2"/>
+        <v>472</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="39"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="43">
+        <v>0</v>
+      </c>
+      <c r="F82" s="44"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="47"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="49">
+        <f>SUM(E4:E82)</f>
+        <v>37418</v>
+      </c>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49">
+        <f>SUM(G4:G82)</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="50">
+        <f>SUM(H4:H82)</f>
+        <v>37418</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B85" s="47"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="52"/>
+      <c r="G85" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="54"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="75">
+        <f>E83-G83</f>
+        <v>37418</v>
+      </c>
+      <c r="F87" s="76"/>
+      <c r="G87" s="77"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="47"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B89" s="47"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="47"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="53"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="57"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="59"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="47"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="53"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="47"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="53"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="47"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="53"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="47"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="53"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="47"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="53"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="47"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="53"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="47"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="53"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="47"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="53"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="47"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="53"/>
+      <c r="I100" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E89:G89"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/CREDITOS  ABASTOS  HERRADURA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/CREDITOS  ABASTOS  HERRADURA   AGOSTO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="59">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -227,6 +227,36 @@
   </si>
   <si>
     <t>31-Jul-22--2-Ago-22--3-Ago-22</t>
+  </si>
+  <si>
+    <t>3-Ago-22--4-Ago-22--5-Ago-55</t>
+  </si>
+  <si>
+    <t>31-Jul-22--4-Ago-22--7-Ago-22</t>
+  </si>
+  <si>
+    <t>6-Ago-22--7-Ago-22</t>
+  </si>
+  <si>
+    <t>5-Ago-22--7-Ago-22</t>
+  </si>
+  <si>
+    <t>10-Ago-22--11-Ago-22--12-Ago-22</t>
+  </si>
+  <si>
+    <t>12-Ago-22--13-Ago-22--14-Ago-22</t>
+  </si>
+  <si>
+    <t>13-Ago-22--14-Ago-22</t>
+  </si>
+  <si>
+    <t>14-Ago-22---16-Ago-22</t>
+  </si>
+  <si>
+    <t>16-Ago-22--18-Ago-22</t>
+  </si>
+  <si>
+    <t>16-Ago-22--18-Ago-22--19-Ago-22</t>
   </si>
 </sst>
 </file>
@@ -609,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -767,6 +797,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1992,25 +2025,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2758,12 +2791,12 @@
       <c r="B45" s="47"/>
       <c r="C45" s="48"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="75">
+      <c r="E45" s="76">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="78"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2779,11 +2812,11 @@
       <c r="B47" s="47"/>
       <c r="C47" s="48"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="78" t="s">
+      <c r="E47" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2925,25 +2958,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3968,12 +4001,12 @@
       <c r="B55" s="47"/>
       <c r="C55" s="48"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="75">
+      <c r="E55" s="76">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="76"/>
-      <c r="G55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3989,11 +4022,11 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="78" t="s">
+      <c r="E57" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4135,25 +4168,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5100,12 +5133,12 @@
       <c r="B52" s="47"/>
       <c r="C52" s="48"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="75">
+      <c r="E52" s="76">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="76"/>
-      <c r="G52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5121,11 +5154,11 @@
       <c r="B54" s="47"/>
       <c r="C54" s="48"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="78" t="s">
+      <c r="E54" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5267,25 +5300,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6601,12 +6634,12 @@
       <c r="B63" s="47"/>
       <c r="C63" s="48"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="75">
+      <c r="E63" s="76">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="76"/>
-      <c r="G63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="78"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6622,11 +6655,11 @@
       <c r="B65" s="47"/>
       <c r="C65" s="48"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="78" t="s">
+      <c r="E65" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -6768,25 +6801,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8120,12 +8153,12 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="75">
+      <c r="E57" s="76">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="76"/>
-      <c r="G57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -8141,11 +8174,11 @@
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="78" t="s">
+      <c r="E59" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -8288,25 +8321,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10099,12 +10132,12 @@
       <c r="B76" s="47"/>
       <c r="C76" s="48"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="75">
+      <c r="E76" s="76">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="76"/>
-      <c r="G76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="78"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -10120,11 +10153,11 @@
       <c r="B78" s="47"/>
       <c r="C78" s="48"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="78" t="s">
+      <c r="E78" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="78"/>
-      <c r="G78" s="78"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10246,8 +10279,8 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75:G75"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10266,25 +10299,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11922,11 +11955,15 @@
       <c r="E65" s="23">
         <v>214</v>
       </c>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
+      <c r="F65" s="66">
+        <v>44778</v>
+      </c>
+      <c r="G65" s="67">
+        <v>214</v>
+      </c>
       <c r="H65" s="21">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -12103,11 +12140,15 @@
       <c r="E72" s="23">
         <v>160</v>
       </c>
-      <c r="F72" s="66"/>
-      <c r="G72" s="67"/>
+      <c r="F72" s="66">
+        <v>44778</v>
+      </c>
+      <c r="G72" s="67">
+        <v>160</v>
+      </c>
       <c r="H72" s="21">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -12163,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>44773</v>
       </c>
@@ -12178,15 +12219,16 @@
       <c r="E75" s="23">
         <v>20380</v>
       </c>
-      <c r="F75" s="66">
-        <v>44773</v>
+      <c r="F75" s="68" t="s">
+        <v>50</v>
       </c>
       <c r="G75" s="67">
-        <v>2964</v>
+        <f>2964+1200+16216</f>
+        <v>20380</v>
       </c>
       <c r="H75" s="21">
         <f t="shared" si="0"/>
-        <v>17416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12242,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="26">
         <v>44773</v>
       </c>
@@ -12257,15 +12299,16 @@
       <c r="E78" s="23">
         <v>15952</v>
       </c>
-      <c r="F78" s="66">
-        <v>44776</v>
+      <c r="F78" s="68" t="s">
+        <v>49</v>
       </c>
       <c r="G78" s="67">
-        <v>5000</v>
+        <f>5000+3500+7452</f>
+        <v>15952</v>
       </c>
       <c r="H78" s="21">
         <f t="shared" si="0"/>
-        <v>10952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -12348,11 +12391,11 @@
       <c r="F83" s="49"/>
       <c r="G83" s="49">
         <f>SUM(G4:G82)</f>
-        <v>562909</v>
+        <v>591651</v>
       </c>
       <c r="H83" s="50">
         <f>SUM(H4:H82)</f>
-        <v>28742</v>
+        <v>0</v>
       </c>
       <c r="I83" s="2"/>
     </row>
@@ -12394,12 +12437,12 @@
       <c r="B87" s="47"/>
       <c r="C87" s="48"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="75">
+      <c r="E87" s="76">
         <f>E83-G83</f>
-        <v>28742</v>
-      </c>
-      <c r="F87" s="76"/>
-      <c r="G87" s="77"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="77"/>
+      <c r="G87" s="78"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -12415,11 +12458,11 @@
       <c r="B89" s="47"/>
       <c r="C89" s="48"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="78" t="s">
+      <c r="E89" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="78"/>
-      <c r="G89" s="78"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -12542,8 +12585,11 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12562,25 +12608,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12610,7 +12656,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44775</v>
       </c>
@@ -12624,11 +12670,16 @@
       <c r="E4" s="18">
         <v>14758</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="20">
+        <f>10350+4408</f>
+        <v>14758</v>
+      </c>
       <c r="H4" s="21">
         <f t="shared" ref="H4:H82" si="0">E4-G4</f>
-        <v>14758</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -12646,11 +12697,15 @@
       <c r="E5" s="23">
         <v>14231</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="24">
+        <v>44777</v>
+      </c>
+      <c r="G5" s="25">
+        <v>14231</v>
+      </c>
       <c r="H5" s="21">
         <f t="shared" si="0"/>
-        <v>14231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -12668,811 +12723,1303 @@
       <c r="E6" s="23">
         <v>8429</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="24">
+        <v>44777</v>
+      </c>
+      <c r="G6" s="25">
+        <v>8429</v>
+      </c>
       <c r="H6" s="21">
         <f t="shared" si="0"/>
-        <v>8429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="26">
+        <v>44777</v>
+      </c>
       <c r="B7" s="15">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="23">
+        <v>215</v>
+      </c>
+      <c r="F7" s="24">
+        <v>44778</v>
+      </c>
+      <c r="G7" s="25">
+        <v>215</v>
+      </c>
       <c r="H7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14">
+        <v>44777</v>
+      </c>
       <c r="B8" s="15">
         <f t="shared" si="1"/>
         <v>401</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="D8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="23">
+        <v>10177</v>
+      </c>
+      <c r="F8" s="24">
+        <v>44778</v>
+      </c>
+      <c r="G8" s="25">
+        <v>10177</v>
+      </c>
       <c r="H8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14">
+        <v>44777</v>
+      </c>
       <c r="B9" s="15">
         <f t="shared" si="1"/>
         <v>402</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="23">
+        <v>7598</v>
+      </c>
+      <c r="F9" s="24">
+        <v>44779</v>
+      </c>
+      <c r="G9" s="25">
+        <v>7598</v>
+      </c>
       <c r="H9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>44777</v>
+      </c>
       <c r="B10" s="15">
         <f t="shared" si="1"/>
         <v>403</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="23">
+        <v>11567</v>
+      </c>
+      <c r="F10" s="24">
+        <v>44778</v>
+      </c>
+      <c r="G10" s="25">
+        <v>11567</v>
+      </c>
       <c r="H10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14">
+        <v>44778</v>
+      </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
         <v>404</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="23">
+        <v>13464</v>
+      </c>
+      <c r="F11" s="24">
+        <v>44782</v>
+      </c>
+      <c r="G11" s="25">
+        <v>13464</v>
+      </c>
       <c r="H11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44778</v>
+      </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>405</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="23">
+        <v>4611</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="25">
+        <f>2311+2300</f>
+        <v>4611</v>
+      </c>
       <c r="H12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>44778</v>
+      </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
         <v>406</v>
       </c>
       <c r="C13" s="30"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="23">
+        <v>9161</v>
+      </c>
+      <c r="F13" s="24">
+        <v>44782</v>
+      </c>
+      <c r="G13" s="25">
+        <v>9161</v>
+      </c>
       <c r="H13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>44778</v>
+      </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>407</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="D14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="23">
+        <v>3898</v>
+      </c>
+      <c r="F14" s="24">
+        <v>44779</v>
+      </c>
+      <c r="G14" s="25">
+        <v>3898</v>
+      </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>44778</v>
+      </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
         <v>408</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="D15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1792</v>
+      </c>
+      <c r="F15" s="24">
+        <v>44779</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1792</v>
+      </c>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>44779</v>
+      </c>
       <c r="B16" s="15">
         <f t="shared" si="1"/>
         <v>409</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="23">
+        <v>9635</v>
+      </c>
+      <c r="F16" s="24">
+        <v>44780</v>
+      </c>
+      <c r="G16" s="25">
+        <v>9635</v>
+      </c>
       <c r="H16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>44779</v>
+      </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="23">
+        <v>13636</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="25">
+        <f>5600+6000+2036</f>
+        <v>13636</v>
+      </c>
       <c r="H17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44779</v>
+      </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
         <v>411</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2770</v>
+      </c>
+      <c r="F18" s="24">
+        <v>44780</v>
+      </c>
+      <c r="G18" s="25">
+        <v>2770</v>
+      </c>
       <c r="H18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>44780</v>
+      </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
         <v>412</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="23">
+        <v>8844</v>
+      </c>
+      <c r="F19" s="69">
+        <v>44782</v>
+      </c>
+      <c r="G19" s="25">
+        <v>8844</v>
+      </c>
       <c r="H19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>44780</v>
+      </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
         <v>413</v>
       </c>
       <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2198</v>
+      </c>
+      <c r="F20" s="24">
+        <v>44782</v>
+      </c>
+      <c r="G20" s="25">
+        <v>2198</v>
+      </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>44781</v>
+      </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="23">
+        <v>285</v>
+      </c>
+      <c r="F21" s="24">
+        <v>44789</v>
+      </c>
+      <c r="G21" s="25">
+        <v>285</v>
+      </c>
       <c r="H21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>44782</v>
+      </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
         <v>415</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="23">
+        <v>8578</v>
+      </c>
+      <c r="F22" s="24">
+        <v>44783</v>
+      </c>
+      <c r="G22" s="25">
+        <v>8578</v>
+      </c>
       <c r="H22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>44782</v>
+      </c>
       <c r="B23" s="15">
         <f t="shared" si="1"/>
         <v>416</v>
       </c>
       <c r="C23" s="29"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="23">
+        <v>12164</v>
+      </c>
+      <c r="F23" s="24">
+        <v>44787</v>
+      </c>
+      <c r="G23" s="25">
+        <v>12164</v>
+      </c>
       <c r="H23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14">
+        <v>44782</v>
+      </c>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>417</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="23">
+        <v>8710</v>
+      </c>
+      <c r="F24" s="69">
+        <v>44783</v>
+      </c>
+      <c r="G24" s="25">
+        <v>8710</v>
+      </c>
       <c r="H24" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>44783</v>
+      </c>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
         <v>418</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="23">
+        <v>12747</v>
+      </c>
+      <c r="F25" s="24">
+        <v>44784</v>
+      </c>
+      <c r="G25" s="25">
+        <v>12747</v>
+      </c>
       <c r="H25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>44783</v>
+      </c>
       <c r="B26" s="15">
         <f t="shared" si="1"/>
         <v>419</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="23">
+        <v>14401</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="25">
+        <f>3000+7500+3901</f>
+        <v>14401</v>
+      </c>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14">
+        <v>44783</v>
+      </c>
       <c r="B27" s="15">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
+      <c r="D27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="23">
+        <v>5052</v>
+      </c>
+      <c r="F27" s="24">
+        <v>44784</v>
+      </c>
+      <c r="G27" s="25">
+        <v>5052</v>
+      </c>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14">
+        <v>44784</v>
+      </c>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
         <v>421</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
+      <c r="D28" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="23">
+        <v>8461</v>
+      </c>
+      <c r="F28" s="24">
+        <v>44785</v>
+      </c>
+      <c r="G28" s="25">
+        <v>8461</v>
+      </c>
       <c r="H28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14">
+        <v>44784</v>
+      </c>
       <c r="B29" s="15">
         <f t="shared" si="1"/>
         <v>422</v>
       </c>
       <c r="C29" s="29"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
+      <c r="D29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="23">
+        <v>8476</v>
+      </c>
+      <c r="F29" s="24">
+        <v>44785</v>
+      </c>
+      <c r="G29" s="25">
+        <v>8476</v>
+      </c>
       <c r="H29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14">
+        <v>44785</v>
+      </c>
       <c r="B30" s="15">
         <f t="shared" si="1"/>
         <v>423</v>
       </c>
       <c r="C30" s="29"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="25"/>
+      <c r="D30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="23">
+        <v>10951</v>
+      </c>
+      <c r="F30" s="69">
+        <v>44786</v>
+      </c>
+      <c r="G30" s="25">
+        <v>10951</v>
+      </c>
       <c r="H30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14">
+        <v>44785</v>
+      </c>
       <c r="B31" s="15">
         <f t="shared" si="1"/>
         <v>424</v>
       </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="D31" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="23">
+        <v>307</v>
+      </c>
+      <c r="F31" s="24">
+        <v>44789</v>
+      </c>
+      <c r="G31" s="25">
+        <v>307</v>
+      </c>
       <c r="H31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14">
+        <v>44785</v>
+      </c>
       <c r="B32" s="15">
         <f t="shared" si="1"/>
         <v>425</v>
       </c>
       <c r="C32" s="29"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
+      <c r="D32" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="23">
+        <v>8435</v>
+      </c>
+      <c r="F32" s="24">
+        <v>44786</v>
+      </c>
+      <c r="G32" s="25">
+        <v>8435</v>
+      </c>
       <c r="H32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14">
+        <v>44785</v>
+      </c>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
         <v>426</v>
       </c>
       <c r="C33" s="29"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="23">
+        <v>3373</v>
+      </c>
+      <c r="F33" s="69">
+        <v>44786</v>
+      </c>
+      <c r="G33" s="25">
+        <v>3373</v>
+      </c>
       <c r="H33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>44786</v>
+      </c>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
         <v>427</v>
       </c>
       <c r="C34" s="29"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
+      <c r="D34" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="23">
+        <v>8020</v>
+      </c>
+      <c r="F34" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="25">
+        <f>3000+5020</f>
+        <v>8020</v>
+      </c>
       <c r="H34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
+      <c r="A35" s="31">
+        <v>44786</v>
+      </c>
       <c r="B35" s="34">
         <f t="shared" si="1"/>
         <v>428</v>
       </c>
       <c r="C35" s="32"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
+      <c r="D35" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="23">
+        <v>12865</v>
+      </c>
+      <c r="F35" s="24">
+        <v>44789</v>
+      </c>
+      <c r="G35" s="25">
+        <v>12865</v>
+      </c>
       <c r="H35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
+    <row r="36" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>44786</v>
+      </c>
       <c r="B36" s="34">
         <f t="shared" si="1"/>
         <v>429</v>
       </c>
       <c r="C36" s="32"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
+      <c r="D36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="23">
+        <v>13453</v>
+      </c>
+      <c r="F36" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="25">
+        <f>4000+4000+3000+2453</f>
+        <v>13453</v>
+      </c>
       <c r="H36" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
+      <c r="A37" s="31">
+        <v>44786</v>
+      </c>
       <c r="B37" s="34">
         <f t="shared" si="1"/>
         <v>430</v>
       </c>
       <c r="C37" s="32"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
+      <c r="D37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="23">
+        <v>12237</v>
+      </c>
+      <c r="F37" s="24">
+        <v>44787</v>
+      </c>
+      <c r="G37" s="25">
+        <v>12237</v>
+      </c>
       <c r="H37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
+    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
+        <v>44787</v>
+      </c>
       <c r="B38" s="34">
         <f t="shared" si="1"/>
         <v>431</v>
       </c>
       <c r="C38" s="32"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
+      <c r="D38" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="23">
+        <v>6891</v>
+      </c>
+      <c r="F38" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="25">
+        <f>1900+4991</f>
+        <v>6891</v>
+      </c>
       <c r="H38" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="31">
+        <v>44787</v>
+      </c>
       <c r="B39" s="34">
         <f t="shared" si="1"/>
         <v>432</v>
       </c>
       <c r="C39" s="32"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
+      <c r="D39" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="23">
+        <v>6122</v>
+      </c>
+      <c r="F39" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="25">
+        <f>5522+600</f>
+        <v>6122</v>
+      </c>
       <c r="H39" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
+      <c r="A40" s="31">
+        <v>44787</v>
+      </c>
       <c r="B40" s="34">
         <f t="shared" si="1"/>
         <v>433</v>
       </c>
       <c r="C40" s="32"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
+      <c r="D40" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="23">
+        <v>5658</v>
+      </c>
+      <c r="F40" s="24">
+        <v>44789</v>
+      </c>
+      <c r="G40" s="25">
+        <v>5658</v>
+      </c>
       <c r="H40" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
+      <c r="A41" s="31">
+        <v>44788</v>
+      </c>
       <c r="B41" s="34">
         <f t="shared" si="1"/>
         <v>434</v>
       </c>
       <c r="C41" s="32"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
+      <c r="D41" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="23">
+        <v>2957</v>
+      </c>
+      <c r="F41" s="24">
+        <v>44789</v>
+      </c>
+      <c r="G41" s="25">
+        <v>2957</v>
+      </c>
       <c r="H41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14">
+        <v>44788</v>
+      </c>
       <c r="B42" s="15">
         <f t="shared" si="1"/>
         <v>435</v>
       </c>
       <c r="C42" s="29"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
+      <c r="D42" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="23">
+        <v>5805</v>
+      </c>
+      <c r="F42" s="24">
+        <v>44789</v>
+      </c>
+      <c r="G42" s="25">
+        <v>5805</v>
+      </c>
       <c r="H42" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>44789</v>
+      </c>
       <c r="B43" s="15">
         <f t="shared" si="1"/>
         <v>436</v>
       </c>
       <c r="C43" s="29"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="25"/>
+      <c r="D43" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="23">
+        <v>3692</v>
+      </c>
+      <c r="F43" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="25">
+        <f>1800+1892</f>
+        <v>3692</v>
+      </c>
       <c r="H43" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14">
+        <v>44789</v>
+      </c>
       <c r="B44" s="15">
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
       <c r="C44" s="29"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="25"/>
+      <c r="D44" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="23">
+        <v>9614</v>
+      </c>
+      <c r="F44" s="69">
+        <v>44792</v>
+      </c>
+      <c r="G44" s="25">
+        <v>9614</v>
+      </c>
       <c r="H44" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14">
+        <v>44789</v>
+      </c>
       <c r="B45" s="15">
         <f t="shared" si="1"/>
         <v>438</v>
       </c>
       <c r="C45" s="29"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="23"/>
+      <c r="D45" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="23">
+        <v>11904</v>
+      </c>
       <c r="F45" s="24"/>
       <c r="G45" s="25"/>
       <c r="H45" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11904</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14">
+        <v>44789</v>
+      </c>
       <c r="B46" s="15">
         <f t="shared" si="1"/>
         <v>439</v>
       </c>
       <c r="C46" s="29"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
+      <c r="D46" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="23">
+        <v>7539</v>
+      </c>
+      <c r="F46" s="24">
+        <v>44790</v>
+      </c>
+      <c r="G46" s="25">
+        <v>7539</v>
+      </c>
       <c r="H46" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14">
+        <v>44790</v>
+      </c>
       <c r="B47" s="15">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
       <c r="C47" s="37"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
+      <c r="D47" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="23">
+        <v>7064</v>
+      </c>
+      <c r="F47" s="24">
+        <v>44791</v>
+      </c>
+      <c r="G47" s="25">
+        <v>7064</v>
+      </c>
       <c r="H47" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14">
+        <v>44791</v>
+      </c>
       <c r="B48" s="15">
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
       <c r="C48" s="38"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
+      <c r="D48" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="23">
+        <v>1748</v>
+      </c>
+      <c r="F48" s="24">
+        <v>44792</v>
+      </c>
+      <c r="G48" s="25">
+        <v>1748</v>
+      </c>
       <c r="H48" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14">
+        <v>44791</v>
+      </c>
       <c r="B49" s="15">
         <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="C49" s="29"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
+      <c r="D49" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="23">
+        <v>580</v>
+      </c>
+      <c r="F49" s="24">
+        <v>44792</v>
+      </c>
+      <c r="G49" s="25">
+        <v>580</v>
+      </c>
       <c r="H49" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14">
+        <v>44791</v>
+      </c>
       <c r="B50" s="15">
         <f t="shared" si="1"/>
         <v>443</v>
       </c>
       <c r="C50" s="29"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="23"/>
+      <c r="D50" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="23">
+        <v>333</v>
+      </c>
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
       <c r="H50" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="14">
+        <v>44791</v>
+      </c>
       <c r="B51" s="15">
         <f t="shared" si="1"/>
         <v>444</v>
       </c>
       <c r="C51" s="29"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
+      <c r="D51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="23">
+        <v>6751</v>
+      </c>
+      <c r="F51" s="24">
+        <v>44792</v>
+      </c>
+      <c r="G51" s="25">
+        <v>6751</v>
+      </c>
       <c r="H51" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="14">
+        <v>44792</v>
+      </c>
       <c r="B52" s="15">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
       <c r="C52" s="29"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="23"/>
+      <c r="D52" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="23">
+        <v>4224</v>
+      </c>
       <c r="F52" s="24"/>
       <c r="G52" s="25"/>
       <c r="H52" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="14">
+        <v>44792</v>
+      </c>
       <c r="B53" s="15">
         <f t="shared" si="1"/>
         <v>446</v>
       </c>
       <c r="C53" s="29"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
+      <c r="D53" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="23">
+        <v>23564</v>
+      </c>
+      <c r="F53" s="24">
+        <v>44792</v>
+      </c>
+      <c r="G53" s="25">
+        <v>10000</v>
+      </c>
       <c r="H53" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13564</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="14">
+        <v>44792</v>
+      </c>
       <c r="B54" s="15">
         <f t="shared" si="1"/>
         <v>447</v>
       </c>
       <c r="C54" s="29"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="23"/>
+      <c r="D54" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="23">
+        <v>2923</v>
+      </c>
       <c r="F54" s="24"/>
       <c r="G54" s="25"/>
       <c r="H54" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+      <c r="A55" s="14">
+        <v>44792</v>
+      </c>
       <c r="B55" s="15">
         <f t="shared" si="1"/>
         <v>448</v>
       </c>
       <c r="C55" s="29"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
+      <c r="D55" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="23">
+        <v>14654</v>
+      </c>
+      <c r="F55" s="24">
+        <v>44792</v>
+      </c>
+      <c r="G55" s="25">
+        <v>3000</v>
+      </c>
       <c r="H55" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11654</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="14">
+        <v>44792</v>
+      </c>
       <c r="B56" s="15">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="C56" s="29"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="23"/>
+      <c r="D56" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="23">
+        <v>8839</v>
+      </c>
       <c r="F56" s="24"/>
       <c r="G56" s="25"/>
       <c r="H56" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8839</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13891,16 +14438,16 @@
       <c r="D83" s="2"/>
       <c r="E83" s="49">
         <f>SUM(E4:E82)</f>
-        <v>37418</v>
+        <v>416361</v>
       </c>
       <c r="F83" s="49"/>
       <c r="G83" s="49">
         <f>SUM(G4:G82)</f>
-        <v>0</v>
+        <v>362920</v>
       </c>
       <c r="H83" s="50">
         <f>SUM(H4:H82)</f>
-        <v>37418</v>
+        <v>53441</v>
       </c>
       <c r="I83" s="2"/>
     </row>
@@ -13942,12 +14489,12 @@
       <c r="B87" s="47"/>
       <c r="C87" s="48"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="75">
+      <c r="E87" s="76">
         <f>E83-G83</f>
-        <v>37418</v>
-      </c>
-      <c r="F87" s="76"/>
-      <c r="G87" s="77"/>
+        <v>53441</v>
+      </c>
+      <c r="F87" s="77"/>
+      <c r="G87" s="78"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -13963,11 +14510,11 @@
       <c r="B89" s="47"/>
       <c r="C89" s="48"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="78" t="s">
+      <c r="E89" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="78"/>
-      <c r="G89" s="78"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/CREDITOS  ABASTOS  HERRADURA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/CREDITOS  ABASTOS  HERRADURA   AGOSTO   2022.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="62">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>16-Ago-22--18-Ago-22--19-Ago-22</t>
+  </si>
+  <si>
+    <t>19-Ago-22--20-Ago-22</t>
+  </si>
+  <si>
+    <t>19-Ago-22--20-Ago-22--21-Ago-22</t>
+  </si>
+  <si>
+    <t>20-Ago-22--21-Ago-22</t>
   </si>
 </sst>
 </file>
@@ -639,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -800,6 +809,24 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -824,6 +851,14 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2025,25 +2060,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2791,12 +2826,12 @@
       <c r="B45" s="47"/>
       <c r="C45" s="48"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="76">
+      <c r="E45" s="82">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="78"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="84"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2812,11 +2847,11 @@
       <c r="B47" s="47"/>
       <c r="C47" s="48"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="79" t="s">
+      <c r="E47" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2958,25 +2993,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4001,12 +4036,12 @@
       <c r="B55" s="47"/>
       <c r="C55" s="48"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="76">
+      <c r="E55" s="82">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="77"/>
-      <c r="G55" s="78"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="84"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4022,11 +4057,11 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="79" t="s">
+      <c r="E57" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4168,25 +4203,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5133,12 +5168,12 @@
       <c r="B52" s="47"/>
       <c r="C52" s="48"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="76">
+      <c r="E52" s="82">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="77"/>
-      <c r="G52" s="78"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="84"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5154,11 +5189,11 @@
       <c r="B54" s="47"/>
       <c r="C54" s="48"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="79" t="s">
+      <c r="E54" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5300,25 +5335,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6634,12 +6669,12 @@
       <c r="B63" s="47"/>
       <c r="C63" s="48"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="76">
+      <c r="E63" s="82">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="77"/>
-      <c r="G63" s="78"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="84"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6655,11 +6690,11 @@
       <c r="B65" s="47"/>
       <c r="C65" s="48"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="79" t="s">
+      <c r="E65" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -6801,25 +6836,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8153,12 +8188,12 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="76">
+      <c r="E57" s="82">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="77"/>
-      <c r="G57" s="78"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="84"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -8174,11 +8209,11 @@
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="79" t="s">
+      <c r="E59" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -8321,25 +8356,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10132,12 +10167,12 @@
       <c r="B76" s="47"/>
       <c r="C76" s="48"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="76">
+      <c r="E76" s="82">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="77"/>
-      <c r="G76" s="78"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="84"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -10153,11 +10188,11 @@
       <c r="B78" s="47"/>
       <c r="C78" s="48"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="79" t="s">
+      <c r="E78" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="79"/>
-      <c r="G78" s="79"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10299,25 +10334,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12437,12 +12472,12 @@
       <c r="B87" s="47"/>
       <c r="C87" s="48"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="76">
+      <c r="E87" s="82">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="77"/>
-      <c r="G87" s="78"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="84"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -12458,11 +12493,11 @@
       <c r="B89" s="47"/>
       <c r="C89" s="48"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="79" t="s">
+      <c r="E89" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -12586,10 +12621,10 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12608,25 +12643,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13745,11 +13780,15 @@
       <c r="E45" s="23">
         <v>11904</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
+      <c r="F45" s="24">
+        <v>44794</v>
+      </c>
+      <c r="G45" s="25">
+        <v>11904</v>
+      </c>
       <c r="H45" s="21">
         <f t="shared" si="0"/>
-        <v>11904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -13919,14 +13958,18 @@
       <c r="E52" s="23">
         <v>4224</v>
       </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
+      <c r="F52" s="24">
+        <v>44793</v>
+      </c>
+      <c r="G52" s="25">
+        <v>4224</v>
+      </c>
       <c r="H52" s="21">
         <f t="shared" si="0"/>
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>44792</v>
       </c>
@@ -13941,18 +13984,19 @@
       <c r="E53" s="23">
         <v>23564</v>
       </c>
-      <c r="F53" s="24">
-        <v>44792</v>
+      <c r="F53" s="69" t="s">
+        <v>59</v>
       </c>
       <c r="G53" s="25">
-        <v>10000</v>
+        <f>10000+13564</f>
+        <v>23564</v>
       </c>
       <c r="H53" s="21">
         <f t="shared" si="0"/>
-        <v>13564</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>44792</v>
       </c>
@@ -13967,15 +14011,19 @@
       <c r="E54" s="23">
         <v>2923</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
+      <c r="F54" s="24">
+        <v>44793</v>
+      </c>
+      <c r="G54" s="25">
+        <v>2923</v>
+      </c>
       <c r="H54" s="21">
         <f t="shared" si="0"/>
-        <v>2923</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="77" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="72">
         <v>44792</v>
       </c>
       <c r="B55" s="15">
@@ -13983,21 +14031,22 @@
         <v>448</v>
       </c>
       <c r="C55" s="29"/>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="74">
         <v>14654</v>
       </c>
-      <c r="F55" s="24">
-        <v>44792</v>
-      </c>
-      <c r="G55" s="25">
-        <v>3000</v>
-      </c>
-      <c r="H55" s="21">
-        <f t="shared" si="0"/>
-        <v>11654</v>
+      <c r="F55" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="75">
+        <f>3000+5000+6654</f>
+        <v>14654</v>
+      </c>
+      <c r="H55" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14015,187 +14064,287 @@
       <c r="E56" s="23">
         <v>8839</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
+      <c r="F56" s="24">
+        <v>44793</v>
+      </c>
+      <c r="G56" s="25">
+        <v>8839</v>
+      </c>
       <c r="H56" s="21">
         <f t="shared" si="0"/>
-        <v>8839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14">
+        <v>44793</v>
+      </c>
       <c r="B57" s="15">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="C57" s="29"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="25"/>
+      <c r="D57" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="23">
+        <v>2276</v>
+      </c>
+      <c r="F57" s="24">
+        <v>44793</v>
+      </c>
+      <c r="G57" s="25">
+        <f>1000+1276</f>
+        <v>2276</v>
+      </c>
       <c r="H57" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="14">
+        <v>44793</v>
+      </c>
       <c r="B58" s="15">
         <f t="shared" si="1"/>
         <v>451</v>
       </c>
       <c r="C58" s="29"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="23"/>
+      <c r="D58" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="23">
+        <v>5856</v>
+      </c>
       <c r="F58" s="24"/>
       <c r="G58" s="25"/>
       <c r="H58" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14">
+        <v>44793</v>
+      </c>
       <c r="B59" s="15">
         <f t="shared" si="1"/>
         <v>452</v>
       </c>
       <c r="C59" s="29"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="25"/>
+      <c r="D59" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="23">
+        <v>16832</v>
+      </c>
+      <c r="F59" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="25">
+        <f>5000+11832</f>
+        <v>16832</v>
+      </c>
       <c r="H59" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14">
+        <v>44793</v>
+      </c>
       <c r="B60" s="15">
         <f t="shared" si="1"/>
         <v>453</v>
       </c>
       <c r="C60" s="29"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
+      <c r="D60" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="23">
+        <v>7958</v>
+      </c>
+      <c r="F60" s="24">
+        <v>44794</v>
+      </c>
+      <c r="G60" s="25">
+        <v>7958</v>
+      </c>
       <c r="H60" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="14">
+        <v>44793</v>
+      </c>
       <c r="B61" s="15">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
       <c r="C61" s="29"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="25"/>
+      <c r="D61" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="23">
+        <v>2053</v>
+      </c>
+      <c r="F61" s="24">
+        <v>44794</v>
+      </c>
+      <c r="G61" s="25">
+        <v>2053</v>
+      </c>
       <c r="H61" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14">
+        <v>44794</v>
+      </c>
       <c r="B62" s="15">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C62" s="29"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="25"/>
+      <c r="D62" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="23">
+        <v>11620</v>
+      </c>
+      <c r="F62" s="24">
+        <v>44794</v>
+      </c>
+      <c r="G62" s="25">
+        <v>5000</v>
+      </c>
       <c r="H62" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="14">
+        <v>44794</v>
+      </c>
       <c r="B63" s="15">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C63" s="29"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="25"/>
+      <c r="D63" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="23">
+        <v>18618</v>
+      </c>
+      <c r="F63" s="69">
+        <v>44794</v>
+      </c>
+      <c r="G63" s="25">
+        <v>6000</v>
+      </c>
       <c r="H63" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12618</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14">
+        <v>44794</v>
+      </c>
       <c r="B64" s="15">
         <f t="shared" si="1"/>
         <v>457</v>
       </c>
       <c r="C64" s="29"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="23"/>
+      <c r="D64" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="23">
+        <v>14175</v>
+      </c>
       <c r="F64" s="24"/>
       <c r="G64" s="25"/>
       <c r="H64" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14175</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
+      <c r="A65" s="26">
+        <v>44794</v>
+      </c>
       <c r="B65" s="15">
         <f t="shared" si="1"/>
         <v>458</v>
       </c>
       <c r="C65" s="29"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="25"/>
+      <c r="D65" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="23">
+        <v>7354</v>
+      </c>
+      <c r="F65" s="24">
+        <v>44796</v>
+      </c>
+      <c r="G65" s="25">
+        <v>7354</v>
+      </c>
       <c r="H65" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="15">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="86">
+        <v>44795</v>
+      </c>
+      <c r="B66" s="87">
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="23"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="89">
+        <v>179.4</v>
+      </c>
       <c r="F66" s="69"/>
       <c r="G66" s="25"/>
       <c r="H66" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>179.4</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
+      <c r="A67" s="26">
+        <v>44796</v>
+      </c>
       <c r="B67" s="15">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C67" s="29"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="23"/>
+      <c r="D67" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="23">
+        <v>6879</v>
+      </c>
       <c r="F67" s="69"/>
       <c r="G67" s="25"/>
       <c r="H67" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14438,16 +14587,16 @@
       <c r="D83" s="2"/>
       <c r="E83" s="49">
         <f>SUM(E4:E82)</f>
-        <v>416361</v>
+        <v>510161.4</v>
       </c>
       <c r="F83" s="49"/>
       <c r="G83" s="49">
         <f>SUM(G4:G82)</f>
-        <v>362920</v>
+        <v>463501</v>
       </c>
       <c r="H83" s="50">
         <f>SUM(H4:H82)</f>
-        <v>53441</v>
+        <v>46660.4</v>
       </c>
       <c r="I83" s="2"/>
     </row>
@@ -14489,12 +14638,12 @@
       <c r="B87" s="47"/>
       <c r="C87" s="48"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="76">
+      <c r="E87" s="82">
         <f>E83-G83</f>
-        <v>53441</v>
-      </c>
-      <c r="F87" s="77"/>
-      <c r="G87" s="78"/>
+        <v>46660.400000000023</v>
+      </c>
+      <c r="F87" s="83"/>
+      <c r="G87" s="84"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -14510,11 +14659,11 @@
       <c r="B89" s="47"/>
       <c r="C89" s="48"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="79" t="s">
+      <c r="E89" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="79"/>
-      <c r="G89" s="79"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/CREDITOS  ABASTOS  HERRADURA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/CREDITOS  ABASTOS  HERRADURA   AGOSTO   2022.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="67">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -266,6 +266,21 @@
   </si>
   <si>
     <t>20-Ago-22--21-Ago-22</t>
+  </si>
+  <si>
+    <t>21-Ago-22--24-Ago-22</t>
+  </si>
+  <si>
+    <t>25-Ago-22--26-Ago-22</t>
+  </si>
+  <si>
+    <t>26-Ago-22--27-Ago-22</t>
+  </si>
+  <si>
+    <t>21-Ago-22--28-Ago-22</t>
+  </si>
+  <si>
+    <t>27-Ago-22--28-Ago-22</t>
   </si>
 </sst>
 </file>
@@ -648,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -851,14 +866,6 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1667,13 +1674,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1720,13 +1727,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12618,13 +12625,13 @@
   <sheetPr>
     <tabColor rgb="FFFF66CC"/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12713,7 +12720,7 @@
         <v>14758</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H82" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H93" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -13910,11 +13917,15 @@
       <c r="E50" s="23">
         <v>333</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
+      <c r="F50" s="24">
+        <v>44801</v>
+      </c>
+      <c r="G50" s="25">
+        <v>333</v>
+      </c>
       <c r="H50" s="21">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14117,11 +14128,15 @@
       <c r="E58" s="23">
         <v>5856</v>
       </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="25"/>
+      <c r="F58" s="24">
+        <v>44797</v>
+      </c>
+      <c r="G58" s="25">
+        <v>5856</v>
+      </c>
       <c r="H58" s="21">
         <f t="shared" si="0"/>
-        <v>5856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14203,7 +14218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>44794</v>
       </c>
@@ -14218,18 +14233,19 @@
       <c r="E62" s="23">
         <v>11620</v>
       </c>
-      <c r="F62" s="24">
-        <v>44794</v>
+      <c r="F62" s="69" t="s">
+        <v>65</v>
       </c>
       <c r="G62" s="25">
-        <v>5000</v>
+        <f>5000+6620</f>
+        <v>11620</v>
       </c>
       <c r="H62" s="21">
         <f t="shared" si="0"/>
-        <v>6620</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>44794</v>
       </c>
@@ -14244,15 +14260,16 @@
       <c r="E63" s="23">
         <v>18618</v>
       </c>
-      <c r="F63" s="69">
-        <v>44794</v>
+      <c r="F63" s="69" t="s">
+        <v>62</v>
       </c>
       <c r="G63" s="25">
-        <v>6000</v>
+        <f>6000+6500+6118</f>
+        <v>18618</v>
       </c>
       <c r="H63" s="21">
         <f t="shared" si="0"/>
-        <v>12618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14270,11 +14287,15 @@
       <c r="E64" s="23">
         <v>14175</v>
       </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="25"/>
+      <c r="F64" s="24">
+        <v>44797</v>
+      </c>
+      <c r="G64" s="25">
+        <v>14175</v>
+      </c>
       <c r="H64" s="21">
         <f t="shared" si="0"/>
-        <v>14175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14304,25 +14325,29 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="86">
+      <c r="A66" s="57">
         <v>44795</v>
       </c>
-      <c r="B66" s="87">
+      <c r="B66" s="34">
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="88" t="s">
+      <c r="C66" s="32"/>
+      <c r="D66" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="89">
-        <v>179.4</v>
-      </c>
-      <c r="F66" s="69"/>
-      <c r="G66" s="25"/>
+      <c r="E66" s="23">
+        <v>179</v>
+      </c>
+      <c r="F66" s="69">
+        <v>44801</v>
+      </c>
+      <c r="G66" s="25">
+        <v>179</v>
+      </c>
       <c r="H66" s="21">
         <f t="shared" si="0"/>
-        <v>179.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -14340,376 +14365,671 @@
       <c r="E67" s="23">
         <v>6879</v>
       </c>
-      <c r="F67" s="69"/>
-      <c r="G67" s="25"/>
+      <c r="F67" s="69">
+        <v>44797</v>
+      </c>
+      <c r="G67" s="25">
+        <v>6879</v>
+      </c>
       <c r="H67" s="21">
         <f t="shared" si="0"/>
-        <v>6879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+      <c r="A68" s="26">
+        <v>44797</v>
+      </c>
       <c r="B68" s="15">
         <f t="shared" si="1"/>
         <v>461</v>
       </c>
       <c r="C68" s="29"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="25"/>
+      <c r="D68" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="23">
+        <v>2922</v>
+      </c>
+      <c r="F68" s="24">
+        <v>44798</v>
+      </c>
+      <c r="G68" s="25">
+        <v>2922</v>
+      </c>
       <c r="H68" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
+    <row r="69" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="26">
+        <v>44797</v>
+      </c>
       <c r="B69" s="15">
         <f t="shared" si="1"/>
         <v>462</v>
       </c>
       <c r="C69" s="29"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="25"/>
+      <c r="D69" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="23">
+        <v>11379</v>
+      </c>
+      <c r="F69" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="25">
+        <f>6000+5379</f>
+        <v>11379</v>
+      </c>
       <c r="H69" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
+      <c r="A70" s="26">
+        <v>44797</v>
+      </c>
       <c r="B70" s="15">
-        <f t="shared" ref="B70:B79" si="2">B69+1</f>
+        <f t="shared" ref="B70:B93" si="2">B69+1</f>
         <v>463</v>
       </c>
       <c r="C70" s="29"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="25"/>
+      <c r="D70" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="23">
+        <v>6899</v>
+      </c>
+      <c r="F70" s="24">
+        <v>44799</v>
+      </c>
+      <c r="G70" s="25">
+        <v>6899</v>
+      </c>
       <c r="H70" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
+      <c r="A71" s="26">
+        <v>44797</v>
+      </c>
       <c r="B71" s="15">
         <f t="shared" si="2"/>
         <v>464</v>
       </c>
       <c r="C71" s="29"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="25"/>
+      <c r="D71" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="23">
+        <v>7376</v>
+      </c>
+      <c r="F71" s="24">
+        <v>44798</v>
+      </c>
+      <c r="G71" s="25">
+        <v>7376</v>
+      </c>
       <c r="H71" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
+      <c r="A72" s="26">
+        <v>44797</v>
+      </c>
       <c r="B72" s="15">
         <f t="shared" si="2"/>
         <v>465</v>
       </c>
       <c r="C72" s="29"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
+      <c r="D72" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="23">
+        <v>4807</v>
+      </c>
+      <c r="F72" s="24">
+        <v>44798</v>
+      </c>
+      <c r="G72" s="25">
+        <v>4807</v>
+      </c>
       <c r="H72" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
+      <c r="A73" s="26">
+        <v>44798</v>
+      </c>
       <c r="B73" s="15">
         <f t="shared" si="2"/>
         <v>466</v>
       </c>
       <c r="C73" s="29"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="25"/>
+      <c r="D73" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="23">
+        <v>2199</v>
+      </c>
+      <c r="F73" s="24">
+        <v>44799</v>
+      </c>
+      <c r="G73" s="25">
+        <v>2199</v>
+      </c>
       <c r="H73" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
+      <c r="A74" s="26">
+        <v>44798</v>
+      </c>
       <c r="B74" s="15">
         <f t="shared" si="2"/>
         <v>467</v>
       </c>
       <c r="C74" s="29"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
+      <c r="D74" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="23">
+        <v>2498</v>
+      </c>
+      <c r="F74" s="24">
+        <v>44799</v>
+      </c>
+      <c r="G74" s="25">
+        <v>2498</v>
+      </c>
       <c r="H74" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
+      <c r="A75" s="26">
+        <v>44798</v>
+      </c>
       <c r="B75" s="15">
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
       <c r="C75" s="29"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="25"/>
+      <c r="D75" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="23">
+        <v>6003</v>
+      </c>
+      <c r="F75" s="24">
+        <v>44799</v>
+      </c>
+      <c r="G75" s="25">
+        <v>6003</v>
+      </c>
       <c r="H75" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
+    <row r="76" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="26">
+        <v>44798</v>
+      </c>
       <c r="B76" s="15">
         <f t="shared" si="2"/>
         <v>469</v>
       </c>
       <c r="C76" s="29"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="25"/>
+      <c r="D76" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="23">
+        <v>13154</v>
+      </c>
+      <c r="F76" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" s="25">
+        <f>6000+7154</f>
+        <v>13154</v>
+      </c>
       <c r="H76" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
+      <c r="A77" s="26">
+        <v>44799</v>
+      </c>
       <c r="B77" s="15">
         <f t="shared" si="2"/>
         <v>470</v>
       </c>
       <c r="C77" s="29"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="25"/>
+      <c r="D77" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="23">
+        <v>2158</v>
+      </c>
+      <c r="F77" s="24">
+        <v>44800</v>
+      </c>
+      <c r="G77" s="25">
+        <v>2158</v>
+      </c>
       <c r="H77" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
+      <c r="A78" s="26">
+        <v>44799</v>
+      </c>
       <c r="B78" s="15">
         <f t="shared" si="2"/>
         <v>471</v>
       </c>
       <c r="C78" s="29"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="25"/>
+      <c r="D78" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="23">
+        <v>2847</v>
+      </c>
+      <c r="F78" s="24">
+        <v>44800</v>
+      </c>
+      <c r="G78" s="25">
+        <v>2847</v>
+      </c>
       <c r="H78" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
+    <row r="79" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="26">
+        <v>44799</v>
+      </c>
       <c r="B79" s="15">
         <f t="shared" si="2"/>
         <v>472</v>
       </c>
       <c r="C79" s="29"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="25"/>
+      <c r="D79" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="23">
+        <v>17259</v>
+      </c>
+      <c r="F79" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="G79" s="25">
+        <f>6000+11259</f>
+        <v>17259</v>
+      </c>
       <c r="H79" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="15"/>
+      <c r="A80" s="26">
+        <v>44799</v>
+      </c>
+      <c r="B80" s="15">
+        <f t="shared" si="2"/>
+        <v>473</v>
+      </c>
       <c r="C80" s="29"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="25"/>
+      <c r="D80" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="23">
+        <v>17347</v>
+      </c>
+      <c r="F80" s="66"/>
+      <c r="G80" s="67"/>
       <c r="H80" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17347</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="15"/>
+      <c r="A81" s="26">
+        <v>44799</v>
+      </c>
+      <c r="B81" s="15">
+        <f t="shared" si="2"/>
+        <v>474</v>
+      </c>
       <c r="C81" s="29"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="25"/>
+      <c r="D81" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="23">
+        <v>6541</v>
+      </c>
+      <c r="F81" s="24">
+        <v>44800</v>
+      </c>
+      <c r="G81" s="25">
+        <v>6541</v>
+      </c>
       <c r="H81" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="43">
-        <v>0</v>
-      </c>
-      <c r="F82" s="44"/>
-      <c r="G82" s="45"/>
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26">
+        <v>44799</v>
+      </c>
+      <c r="B82" s="15">
+        <f t="shared" si="2"/>
+        <v>475</v>
+      </c>
+      <c r="C82" s="29"/>
+      <c r="D82" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="23">
+        <v>246</v>
+      </c>
+      <c r="F82" s="24">
+        <v>44801</v>
+      </c>
+      <c r="G82" s="25">
+        <v>246</v>
+      </c>
       <c r="H82" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="47"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="49">
-        <f>SUM(E4:E82)</f>
-        <v>510161.4</v>
-      </c>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49">
-        <f>SUM(G4:G82)</f>
-        <v>463501</v>
-      </c>
-      <c r="H83" s="50">
-        <f>SUM(H4:H82)</f>
-        <v>46660.4</v>
-      </c>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="47"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B85" s="47"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="52"/>
-      <c r="G85" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" s="54"/>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="47"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="47"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="82">
-        <f>E83-G83</f>
-        <v>46660.400000000023</v>
-      </c>
-      <c r="F87" s="83"/>
-      <c r="G87" s="84"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="47"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B89" s="47"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="47"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="53"/>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="57"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="59"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="47"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="53"/>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="47"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="53"/>
+    </row>
+    <row r="83" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="26">
+        <v>44800</v>
+      </c>
+      <c r="B83" s="15">
+        <f t="shared" si="2"/>
+        <v>476</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" s="23">
+        <v>18095</v>
+      </c>
+      <c r="F83" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="G83" s="25">
+        <f>6000+12095</f>
+        <v>18095</v>
+      </c>
+      <c r="H83" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26">
+        <v>44800</v>
+      </c>
+      <c r="B84" s="15">
+        <f t="shared" si="2"/>
+        <v>477</v>
+      </c>
+      <c r="C84" s="29"/>
+      <c r="D84" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="23">
+        <v>7151</v>
+      </c>
+      <c r="F84" s="24">
+        <v>44801</v>
+      </c>
+      <c r="G84" s="25">
+        <v>7151</v>
+      </c>
+      <c r="H84" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="26">
+        <v>44800</v>
+      </c>
+      <c r="B85" s="15">
+        <f t="shared" si="2"/>
+        <v>478</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="23">
+        <v>13060</v>
+      </c>
+      <c r="F85" s="24">
+        <v>44801</v>
+      </c>
+      <c r="G85" s="25">
+        <v>13060</v>
+      </c>
+      <c r="H85" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26">
+        <v>44800</v>
+      </c>
+      <c r="B86" s="15">
+        <f t="shared" si="2"/>
+        <v>479</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="23">
+        <v>2558</v>
+      </c>
+      <c r="F86" s="66"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="21">
+        <f t="shared" si="0"/>
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26">
+        <v>44800</v>
+      </c>
+      <c r="B87" s="15">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" s="23">
+        <v>1960</v>
+      </c>
+      <c r="F87" s="24">
+        <v>44801</v>
+      </c>
+      <c r="G87" s="25">
+        <v>1960</v>
+      </c>
+      <c r="H87" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26">
+        <v>44801</v>
+      </c>
+      <c r="B88" s="15">
+        <f t="shared" si="2"/>
+        <v>481</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="23">
+        <v>2103</v>
+      </c>
+      <c r="F88" s="24">
+        <v>44801</v>
+      </c>
+      <c r="G88" s="25">
+        <v>2103</v>
+      </c>
+      <c r="H88" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26">
+        <v>44801</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" si="2"/>
+        <v>482</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="23">
+        <v>13622</v>
+      </c>
+      <c r="F89" s="66"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="21">
+        <f t="shared" si="0"/>
+        <v>13622</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26">
+        <v>44801</v>
+      </c>
+      <c r="B90" s="15">
+        <f t="shared" si="2"/>
+        <v>483</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="23">
+        <v>12320</v>
+      </c>
+      <c r="F90" s="66"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="21">
+        <f t="shared" si="0"/>
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="26">
+        <v>44801</v>
+      </c>
+      <c r="B91" s="15">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="23">
+        <v>7538</v>
+      </c>
+      <c r="F91" s="66"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="21">
+        <f t="shared" si="0"/>
+        <v>7538</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="39"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="43">
+        <v>0</v>
+      </c>
+      <c r="F93" s="44"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B94" s="47"/>
       <c r="C94" s="48"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="53"/>
+      <c r="E94" s="49">
+        <f>SUM(E4:E93)</f>
+        <v>692203</v>
+      </c>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49">
+        <f>SUM(G4:G93)</f>
+        <v>638818</v>
+      </c>
+      <c r="H94" s="50">
+        <f>SUM(H4:H93)</f>
+        <v>53385</v>
+      </c>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -14719,36 +15039,46 @@
       <c r="E95" s="51"/>
       <c r="F95" s="52"/>
       <c r="G95" s="53"/>
+      <c r="H95" s="54"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B96" s="47"/>
       <c r="C96" s="48"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="51"/>
+      <c r="E96" s="55" t="s">
+        <v>10</v>
+      </c>
       <c r="F96" s="52"/>
-      <c r="G96" s="53"/>
+      <c r="G96" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="54"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="47"/>
       <c r="C97" s="48"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="51"/>
+      <c r="E97" s="55"/>
       <c r="F97" s="52"/>
-      <c r="G97" s="53"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="54"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B98" s="47"/>
       <c r="C98" s="48"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="53"/>
+      <c r="E98" s="82">
+        <f>E94-G94</f>
+        <v>53385</v>
+      </c>
+      <c r="F98" s="83"/>
+      <c r="G98" s="84"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B99" s="47"/>
       <c r="C99" s="48"/>
       <c r="D99" s="2"/>
@@ -14757,24 +15087,127 @@
       <c r="G99" s="53"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B100" s="47"/>
       <c r="C100" s="48"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="53"/>
+      <c r="E100" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
       <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="47"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="53"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="57"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="59"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="47"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="53"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="47"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="53"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="47"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="53"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="47"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="53"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="47"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="53"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="47"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="53"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="47"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="53"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="47"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="53"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="47"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="53"/>
+      <c r="I111" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E100:G100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
